--- a/data/base_ofertas.xlsx
+++ b/data/base_ofertas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,10 +451,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Valor_Saida</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Observacao</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Responsavel</t>
         </is>
@@ -463,162 +468,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>22/02/2026 17:19:38</t>
+          <t>23/02/2026 01:16:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cuto da Familha</t>
+          <t>Culto de Ceia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2352,00</t>
+          <t>2700,00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23t2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+          <t>100,00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
         <is>
           <t>ADMINISTRADOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>22/02/2026 17:25:48</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Cuto da Familha</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>23,00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ADMINISTRADOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>22/02/2026 17:27:19</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Circulo de Oração</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3434,00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>ADMINISTRADOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>22/02/2026 17:28:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Circulo de Oração</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2342,00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2342</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>daniel novais</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>22/02/2026 18:19:26</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cuto da Familha</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>valorrrr</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ADMINISTRADOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>22/02/2026 18:22:54</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cuto da Familha</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>700,00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>303 aju</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>daniel novais</t>
         </is>
       </c>
     </row>
